--- a/NoteBook/task and schedule plans and actual/TASK_Rafael_Ortega_ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Rafael_Ortega_ciclo2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="68">
   <si>
     <t>TSPi Example Task Planning Template - Form TASK</t>
   </si>
@@ -547,6 +547,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,6 +595,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,39 +611,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -920,7 +920,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,11 +937,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -950,10 +950,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="27">
         <v>41751</v>
       </c>
@@ -962,10 +962,10 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
@@ -974,10 +974,10 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="42">
-        <v>1</v>
-      </c>
-      <c r="C5" s="42"/>
+      <c r="B5" s="46">
+        <v>1</v>
+      </c>
+      <c r="C5" s="46"/>
       <c r="D5" s="26">
         <v>2</v>
       </c>
@@ -986,183 +986,183 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="31" t="s">
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="41"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="34" t="s">
+      <c r="M8" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="30" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="7">
         <v>0.3</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="34">
         <v>0.3</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="34">
         <v>18</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="34">
         <v>6</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="34">
         <f>ROUND(((D14/D39)*100),1)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="34">
         <f>I14</f>
         <v>1</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="34">
         <v>0.5</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="34">
         <f>K14</f>
         <v>0.5</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="34">
         <v>7</v>
       </c>
     </row>
@@ -1171,132 +1171,132 @@
         <v>34</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="7">
         <v>0.3</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="34">
         <f>D15+E14</f>
         <v>0.6</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="48">
-        <v>1</v>
-      </c>
-      <c r="H15" s="48">
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="34">
         <v>6</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="34">
         <f>ROUND(((D15/D39)*100),1)</f>
         <v>1</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="34">
         <f t="shared" ref="J15:J38" si="0">I15+J14</f>
         <v>2</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="34">
         <v>0.5</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="34">
         <f>K15+L14</f>
         <v>1</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="7">
         <v>0.2</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="34">
         <f t="shared" ref="E16:E38" si="1">D16+E15</f>
         <v>0.8</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="34">
         <v>6</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="34">
         <f>ROUND(((D16/D39)*100),1)</f>
         <v>0.7</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="34">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="34">
         <v>0.2</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="34">
         <f t="shared" ref="L16:L38" si="2">K16+L15</f>
         <v>1.2</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="7">
         <v>0.5</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="34">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="48">
-        <v>1</v>
-      </c>
-      <c r="H17" s="48">
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="34">
         <v>6</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="34">
         <f>ROUND(((D17/D39)*100),1)</f>
         <v>1.7</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="34">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="34">
         <v>0.7</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="34">
         <f t="shared" si="2"/>
         <v>1.9</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="8">
@@ -1335,9 +1335,9 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="8">
@@ -1376,9 +1376,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="8">
@@ -1413,9 +1413,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="8">
@@ -1454,9 +1454,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="8">
@@ -1495,11 +1495,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="32" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="10">
@@ -1509,38 +1509,38 @@
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="35">
         <v>3</v>
       </c>
-      <c r="H23" s="49">
+      <c r="H23" s="35">
         <v>8</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="35">
         <f>ROUND(((D23/D39)*100),1)</f>
         <v>3.4</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="35">
         <f t="shared" si="0"/>
         <v>31.599999999999998</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="35">
         <v>0.9</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="35">
         <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="32" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="10">
@@ -1550,34 +1550,34 @@
         <f t="shared" si="1"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35">
         <v>8</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="35">
         <f>ROUND(((D24/D39)*100),1)</f>
         <v>1.7</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="35">
         <f t="shared" si="0"/>
         <v>33.299999999999997</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="35">
         <v>0.6</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="35">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="10">
@@ -1587,38 +1587,38 @@
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="49">
+      <c r="G25" s="35">
         <v>336</v>
       </c>
-      <c r="H25" s="49">
+      <c r="H25" s="35">
         <v>8</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="35">
         <f>ROUND(((D25/D39)*100),1)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="35">
         <f t="shared" si="0"/>
         <v>43.5</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="35">
         <v>4</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="35">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="10">
@@ -1628,40 +1628,40 @@
         <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="49">
-        <v>1</v>
-      </c>
-      <c r="H26" s="49">
+      <c r="G26" s="35">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35">
         <v>8</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="35">
         <f>ROUND(((D26/D39)*100),1)</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="35">
         <f t="shared" si="0"/>
         <v>53.7</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="35">
         <v>4.2</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="35">
         <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10">
@@ -1671,38 +1671,38 @@
         <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="35">
         <v>2</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="35">
         <v>8</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="35">
         <f>ROUND(((D27/D39)*100),1)</f>
         <v>3.4</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="35">
         <f t="shared" si="0"/>
         <v>57.1</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="35">
         <v>1.6</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="35">
         <f t="shared" si="2"/>
         <v>21.8</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="32" t="s">
         <v>47</v>
       </c>
       <c r="D28" s="10">
@@ -1712,38 +1712,38 @@
         <f t="shared" si="1"/>
         <v>17.8</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="49">
-        <v>1</v>
-      </c>
-      <c r="H28" s="49">
+      <c r="G28" s="35">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
         <v>8</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="35">
         <f>ROUND(((D28/D39)*100),1)</f>
         <v>3.4</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="35">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="K28" s="49">
-        <v>1</v>
-      </c>
-      <c r="L28" s="49">
+      <c r="K28" s="35">
+        <v>1</v>
+      </c>
+      <c r="L28" s="35">
         <f t="shared" si="2"/>
         <v>22.8</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="32" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="10">
@@ -1753,38 +1753,38 @@
         <f t="shared" si="1"/>
         <v>19.8</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="35">
         <v>20</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="35">
         <v>8</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="35">
         <f>ROUND(((D29/D39)*100),1)</f>
         <v>6.8</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="35">
         <f t="shared" si="0"/>
         <v>67.3</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="35">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="35">
         <f t="shared" si="2"/>
         <v>25.1</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="10">
@@ -1794,38 +1794,40 @@
         <f t="shared" si="1"/>
         <v>20.8</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="49">
-        <v>1</v>
-      </c>
-      <c r="H30" s="49">
+      <c r="G30" s="35">
+        <v>1</v>
+      </c>
+      <c r="H30" s="35">
         <v>8</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="35">
         <f>ROUND(((D30/D39)*100),1)</f>
         <v>3.4</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="35">
         <f t="shared" si="0"/>
         <v>70.7</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="35">
         <v>1.7</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="35">
         <f t="shared" si="2"/>
         <v>26.8</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="35">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
+      <c r="A31" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="33" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="11">
@@ -1862,9 +1864,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="33" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="11">
@@ -1901,9 +1903,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="11">
@@ -1940,9 +1942,9 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="33" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="11">
@@ -1979,9 +1981,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="47" t="s">
+      <c r="C35" s="33" t="s">
         <v>66</v>
       </c>
       <c r="D35" s="11">
@@ -2018,12 +2020,12 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="29">
         <v>1</v>
       </c>
       <c r="E36" s="11">
@@ -2057,9 +2059,9 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="28"/>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="11">
@@ -2096,9 +2098,9 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="33" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="11">
@@ -2134,7 +2136,7 @@
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="50">
+      <c r="D39" s="36">
         <f>SUM(D14:D38)</f>
         <v>29.3</v>
       </c>
@@ -2153,6 +2155,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A38"/>
@@ -2166,19 +2178,9 @@
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2199,141 +2201,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="31" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="31" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="42" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2420,7 +2422,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="5"/>
@@ -2463,7 +2465,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -2504,7 +2506,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>39</v>
@@ -2586,7 +2588,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="5"/>
@@ -2629,7 +2631,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>41</v>
@@ -2664,7 +2666,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>42</v>
@@ -2703,7 +2705,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -2740,7 +2742,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -2777,7 +2779,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>20</v>
@@ -2816,7 +2818,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="37" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="5"/>
@@ -2857,7 +2859,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>28</v>
@@ -2896,7 +2898,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
@@ -2933,7 +2935,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
@@ -2970,7 +2972,7 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -3007,7 +3009,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="5"/>
@@ -3048,7 +3050,7 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>51</v>
@@ -3085,7 +3087,7 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -3122,7 +3124,7 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
         <v>21</v>
@@ -3161,7 +3163,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
         <v>53</v>
@@ -3198,7 +3200,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
         <v>43</v>
@@ -3259,6 +3261,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3274,13 +3283,6 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NoteBook/task and schedule plans and actual/TASK_Rafael_Ortega_ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Rafael_Ortega_ciclo2.xlsx
@@ -463,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,46 +571,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -919,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,11 +949,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -950,10 +962,10 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="27">
         <v>41751</v>
       </c>
@@ -962,10 +974,10 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="26" t="s">
         <v>17</v>
       </c>
@@ -974,10 +986,10 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="46">
-        <v>1</v>
-      </c>
-      <c r="C5" s="46"/>
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44"/>
       <c r="D5" s="26">
         <v>2</v>
       </c>
@@ -986,143 +998,143 @@
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="39" t="s">
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="J8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="42" t="s">
+      <c r="M8" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
@@ -1147,13 +1159,13 @@
       <c r="H14" s="34">
         <v>6</v>
       </c>
-      <c r="I14" s="34">
-        <f>ROUND(((D14/D39)*100),1)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="I14" s="51">
+        <f>((D14/D39)*100)</f>
+        <v>1.0238907849829351</v>
+      </c>
+      <c r="J14" s="51">
         <f>I14</f>
-        <v>1</v>
+        <v>1.0238907849829351</v>
       </c>
       <c r="K14" s="34">
         <v>0.5</v>
@@ -1190,13 +1202,13 @@
       <c r="H15" s="34">
         <v>6</v>
       </c>
-      <c r="I15" s="34">
-        <f>ROUND(((D15/D39)*100),1)</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="34">
+      <c r="I15" s="51">
+        <f>((D15/D39)*100)</f>
+        <v>1.0238907849829351</v>
+      </c>
+      <c r="J15" s="51">
         <f t="shared" ref="J15:J38" si="0">I15+J14</f>
-        <v>2</v>
+        <v>2.0477815699658701</v>
       </c>
       <c r="K15" s="34">
         <v>0.5</v>
@@ -1210,7 +1222,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="5"/>
@@ -1233,13 +1245,13 @@
       <c r="H16" s="34">
         <v>6</v>
       </c>
-      <c r="I16" s="34">
-        <f>ROUND(((D16/D39)*100),1)</f>
-        <v>0.7</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="I16" s="51">
+        <f>((D16/D39)*100)</f>
+        <v>0.68259385665529015</v>
+      </c>
+      <c r="J16" s="51">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.7303754266211602</v>
       </c>
       <c r="K16" s="34">
         <v>0.2</v>
@@ -1253,7 +1265,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="5"/>
       <c r="C17" s="30" t="s">
         <v>24</v>
@@ -1274,13 +1286,13 @@
       <c r="H17" s="34">
         <v>6</v>
       </c>
-      <c r="I17" s="34">
-        <f>ROUND(((D17/D39)*100),1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="J17" s="34">
+      <c r="I17" s="51">
+        <f>((D17/D39)*100)</f>
+        <v>1.7064846416382253</v>
+      </c>
+      <c r="J17" s="51">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>4.4368600682593851</v>
       </c>
       <c r="K17" s="34">
         <v>0.7</v>
@@ -1294,7 +1306,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5"/>
       <c r="C18" s="31" t="s">
         <v>57</v>
@@ -1315,13 +1327,13 @@
       <c r="H18" s="8">
         <v>7</v>
       </c>
-      <c r="I18" s="8">
-        <f>ROUND(((D18/D39)*100),1)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18" s="52">
+        <f>((D18/D39)*100)</f>
+        <v>6.8259385665529013</v>
+      </c>
+      <c r="J18" s="52">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>11.262798634812286</v>
       </c>
       <c r="K18" s="8">
         <v>2.1</v>
@@ -1335,7 +1347,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5"/>
       <c r="C19" s="31" t="s">
         <v>59</v>
@@ -1356,13 +1368,13 @@
       <c r="H19" s="8">
         <v>7</v>
       </c>
-      <c r="I19" s="8">
-        <f>ROUND(((D19/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="I19" s="52">
+        <f>((D19/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J19" s="52">
         <f t="shared" si="0"/>
-        <v>14.6</v>
+        <v>14.675767918088738</v>
       </c>
       <c r="K19" s="8">
         <v>1.5</v>
@@ -1376,7 +1388,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="5"/>
       <c r="C20" s="31" t="s">
         <v>41</v>
@@ -1393,13 +1405,13 @@
       <c r="H20" s="8">
         <v>7</v>
       </c>
-      <c r="I20" s="8">
-        <f>ROUND(((D20/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J20" s="8">
+      <c r="I20" s="52">
+        <f>((D20/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J20" s="52">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.088737201365188</v>
       </c>
       <c r="K20" s="8">
         <v>1.6</v>
@@ -1413,7 +1425,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="5"/>
       <c r="C21" s="31" t="s">
         <v>43</v>
@@ -1434,13 +1446,13 @@
       <c r="H21" s="8">
         <v>7</v>
       </c>
-      <c r="I21" s="8">
-        <f>ROUND(((D21/D39)*100),1)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J21" s="8">
+      <c r="I21" s="52">
+        <f>((D21/D39)*100)</f>
+        <v>6.8259385665529013</v>
+      </c>
+      <c r="J21" s="52">
         <f t="shared" si="0"/>
-        <v>24.8</v>
+        <v>24.914675767918091</v>
       </c>
       <c r="K21" s="8">
         <v>2.2000000000000002</v>
@@ -1454,7 +1466,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="5"/>
       <c r="C22" s="31" t="s">
         <v>60</v>
@@ -1475,13 +1487,13 @@
       <c r="H22" s="8">
         <v>7</v>
       </c>
-      <c r="I22" s="8">
-        <f>ROUND(((D22/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I22" s="52">
+        <f>((D22/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J22" s="52">
         <f t="shared" si="0"/>
-        <v>28.2</v>
+        <v>28.327645051194541</v>
       </c>
       <c r="K22" s="8">
         <v>1.2</v>
@@ -1495,7 +1507,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="5"/>
@@ -1518,13 +1530,13 @@
       <c r="H23" s="35">
         <v>8</v>
       </c>
-      <c r="I23" s="35">
-        <f>ROUND(((D23/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J23" s="35">
+      <c r="I23" s="53">
+        <f>((D23/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J23" s="53">
         <f t="shared" si="0"/>
-        <v>31.599999999999998</v>
+        <v>31.74061433447099</v>
       </c>
       <c r="K23" s="35">
         <v>0.9</v>
@@ -1538,7 +1550,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="5"/>
       <c r="C24" s="32" t="s">
         <v>62</v>
@@ -1555,13 +1567,13 @@
       <c r="H24" s="35">
         <v>8</v>
       </c>
-      <c r="I24" s="35">
-        <f>ROUND(((D24/D39)*100),1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="J24" s="35">
+      <c r="I24" s="53">
+        <f>((D24/D39)*100)</f>
+        <v>1.7064846416382253</v>
+      </c>
+      <c r="J24" s="53">
         <f t="shared" si="0"/>
-        <v>33.299999999999997</v>
+        <v>33.447098976109217</v>
       </c>
       <c r="K24" s="35">
         <v>0.6</v>
@@ -1575,7 +1587,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="5"/>
       <c r="C25" s="32" t="s">
         <v>20</v>
@@ -1596,13 +1608,13 @@
       <c r="H25" s="35">
         <v>8</v>
       </c>
-      <c r="I25" s="35">
-        <f>ROUND(((D25/D39)*100),1)</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J25" s="35">
+      <c r="I25" s="53">
+        <f>((D25/D39)*100)</f>
+        <v>10.238907849829351</v>
+      </c>
+      <c r="J25" s="53">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>43.68600682593857</v>
       </c>
       <c r="K25" s="35">
         <v>4</v>
@@ -1616,7 +1628,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="5"/>
       <c r="C26" s="32" t="s">
         <v>63</v>
@@ -1637,13 +1649,13 @@
       <c r="H26" s="35">
         <v>8</v>
       </c>
-      <c r="I26" s="35">
-        <f>ROUND(((D26/D39)*100),1)</f>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J26" s="35">
+      <c r="I26" s="53">
+        <f>((D26/D39)*100)</f>
+        <v>10.238907849829351</v>
+      </c>
+      <c r="J26" s="53">
         <f t="shared" si="0"/>
-        <v>53.7</v>
+        <v>53.924914675767923</v>
       </c>
       <c r="K26" s="35">
         <v>4.2</v>
@@ -1657,7 +1669,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="5"/>
@@ -1680,13 +1692,13 @@
       <c r="H27" s="35">
         <v>8</v>
       </c>
-      <c r="I27" s="35">
-        <f>ROUND(((D27/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J27" s="35">
+      <c r="I27" s="53">
+        <f>((D27/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J27" s="53">
         <f t="shared" si="0"/>
-        <v>57.1</v>
+        <v>57.337883959044376</v>
       </c>
       <c r="K27" s="35">
         <v>1.6</v>
@@ -1700,7 +1712,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="5"/>
       <c r="C28" s="32" t="s">
         <v>47</v>
@@ -1721,13 +1733,13 @@
       <c r="H28" s="35">
         <v>8</v>
       </c>
-      <c r="I28" s="35">
-        <f>ROUND(((D28/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J28" s="35">
+      <c r="I28" s="53">
+        <f>((D28/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J28" s="53">
         <f t="shared" si="0"/>
-        <v>60.5</v>
+        <v>60.750853242320829</v>
       </c>
       <c r="K28" s="35">
         <v>1</v>
@@ -1741,7 +1753,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="5"/>
       <c r="C29" s="32" t="s">
         <v>43</v>
@@ -1762,13 +1774,13 @@
       <c r="H29" s="35">
         <v>8</v>
       </c>
-      <c r="I29" s="35">
-        <f>ROUND(((D29/D39)*100),1)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J29" s="35">
+      <c r="I29" s="53">
+        <f>((D29/D39)*100)</f>
+        <v>6.8259385665529013</v>
+      </c>
+      <c r="J29" s="53">
         <f t="shared" si="0"/>
-        <v>67.3</v>
+        <v>67.576791808873736</v>
       </c>
       <c r="K29" s="35">
         <v>2.2999999999999998</v>
@@ -1782,7 +1794,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="5"/>
       <c r="C30" s="32" t="s">
         <v>60</v>
@@ -1803,13 +1815,13 @@
       <c r="H30" s="35">
         <v>8</v>
       </c>
-      <c r="I30" s="35">
-        <f>ROUND(((D30/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J30" s="35">
+      <c r="I30" s="53">
+        <f>((D30/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J30" s="53">
         <f t="shared" si="0"/>
-        <v>70.7</v>
+        <v>70.989761092150189</v>
       </c>
       <c r="K30" s="35">
         <v>1.7</v>
@@ -1823,7 +1835,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="5"/>
@@ -1846,25 +1858,27 @@
       <c r="H31" s="11">
         <v>9</v>
       </c>
-      <c r="I31" s="11">
-        <f>ROUND(((D31/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J31" s="11">
+      <c r="I31" s="54">
+        <f>((D31/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J31" s="54">
         <f t="shared" si="0"/>
-        <v>74.100000000000009</v>
-      </c>
-      <c r="K31" s="11"/>
+        <v>74.402730375426643</v>
+      </c>
+      <c r="K31" s="11">
+        <v>2</v>
+      </c>
       <c r="L31" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>28.8</v>
       </c>
       <c r="M31" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="5"/>
       <c r="C32" s="33" t="s">
         <v>65</v>
@@ -1885,25 +1899,27 @@
       <c r="H32" s="11">
         <v>9</v>
       </c>
-      <c r="I32" s="11">
-        <f>ROUND(((D32/D39)*100),1)</f>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="I32" s="54">
+        <f>((D32/D39)*100)</f>
+        <v>5.1194539249146755</v>
+      </c>
+      <c r="J32" s="54">
         <f t="shared" si="0"/>
-        <v>79.2</v>
-      </c>
-      <c r="K32" s="11"/>
+        <v>79.522184300341323</v>
+      </c>
+      <c r="K32" s="11">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="L32" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>31.1</v>
       </c>
       <c r="M32" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="5"/>
       <c r="C33" s="33" t="s">
         <v>51</v>
@@ -1924,25 +1940,27 @@
       <c r="H33" s="11">
         <v>9</v>
       </c>
-      <c r="I33" s="11">
-        <f>ROUND(((D33/D39)*100),1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="J33" s="11">
+      <c r="I33" s="54">
+        <f>((D33/D39)*100)</f>
+        <v>1.7064846416382253</v>
+      </c>
+      <c r="J33" s="54">
         <f t="shared" si="0"/>
-        <v>80.900000000000006</v>
-      </c>
-      <c r="K33" s="11"/>
+        <v>81.228668941979549</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.8</v>
+      </c>
       <c r="L33" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="M33" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28"/>
       <c r="C34" s="33" t="s">
         <v>52</v>
@@ -1963,25 +1981,27 @@
       <c r="H34" s="11">
         <v>9</v>
       </c>
-      <c r="I34" s="11">
-        <f>ROUND(((D34/D39)*100),1)</f>
-        <v>1.7</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="54">
+        <f>((D34/D39)*100)</f>
+        <v>1.7064846416382253</v>
+      </c>
+      <c r="J34" s="54">
         <f t="shared" si="0"/>
-        <v>82.600000000000009</v>
-      </c>
-      <c r="K34" s="11"/>
+        <v>82.935153583617776</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L34" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>32.400000000000006</v>
       </c>
       <c r="M34" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="28"/>
       <c r="C35" s="33" t="s">
         <v>66</v>
@@ -2002,25 +2022,27 @@
       <c r="H35" s="11">
         <v>9</v>
       </c>
-      <c r="I35" s="11">
-        <f>ROUND(((D35/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="I35" s="54">
+        <f>((D35/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J35" s="54">
         <f t="shared" si="0"/>
-        <v>86.000000000000014</v>
-      </c>
-      <c r="K35" s="11"/>
+        <v>86.348122866894229</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L35" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>33.500000000000007</v>
       </c>
       <c r="M35" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="28"/>
       <c r="C36" s="33" t="s">
         <v>21</v>
@@ -2041,25 +2063,27 @@
       <c r="H36" s="11">
         <v>9</v>
       </c>
-      <c r="I36" s="11">
-        <f>ROUND(((D36/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="I36" s="54">
+        <f>((D36/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J36" s="54">
         <f t="shared" si="0"/>
-        <v>89.40000000000002</v>
-      </c>
-      <c r="K36" s="11"/>
+        <v>89.761092150170683</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1.5</v>
+      </c>
       <c r="L36" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>35.000000000000007</v>
       </c>
       <c r="M36" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="28"/>
       <c r="C37" s="33" t="s">
         <v>43</v>
@@ -2080,25 +2104,27 @@
       <c r="H37" s="11">
         <v>9</v>
       </c>
-      <c r="I37" s="11">
-        <f>ROUND(((D37/D39)*100),1)</f>
-        <v>6.8</v>
-      </c>
-      <c r="J37" s="11">
+      <c r="I37" s="54">
+        <f>((D37/D39)*100)</f>
+        <v>6.8259385665529013</v>
+      </c>
+      <c r="J37" s="54">
         <f t="shared" si="0"/>
-        <v>96.200000000000017</v>
-      </c>
-      <c r="K37" s="11"/>
+        <v>96.587030716723589</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1.8</v>
+      </c>
       <c r="L37" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>36.800000000000004</v>
       </c>
       <c r="M37" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="28"/>
       <c r="C38" s="33" t="s">
         <v>67</v>
@@ -2115,18 +2141,20 @@
       <c r="H38" s="11">
         <v>9</v>
       </c>
-      <c r="I38" s="11">
-        <f>ROUND(((D38/D39)*100),1)</f>
-        <v>3.4</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="I38" s="54">
+        <f>((D38/D39)*100)</f>
+        <v>3.4129692832764507</v>
+      </c>
+      <c r="J38" s="54">
         <f t="shared" si="0"/>
-        <v>99.600000000000023</v>
-      </c>
-      <c r="K38" s="11"/>
+        <v>100.00000000000004</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1.6</v>
+      </c>
       <c r="L38" s="11">
         <f t="shared" si="2"/>
-        <v>26.8</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="M38" s="11">
         <v>9</v>
@@ -2146,25 +2174,18 @@
       <c r="H39" s="19"/>
       <c r="I39" s="25">
         <f>SUM(I14:I38)</f>
-        <v>99.600000000000023</v>
+        <v>100.00000000000004</v>
       </c>
       <c r="J39" s="23"/>
-      <c r="K39" s="25"/>
+      <c r="K39" s="25">
+        <f>SUM(K14:K38)</f>
+        <v>38.400000000000006</v>
+      </c>
       <c r="L39" s="21"/>
       <c r="M39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A38"/>
@@ -2181,6 +2202,16 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2201,141 +2232,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="39" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="40" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2422,7 +2453,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="5"/>
@@ -2465,7 +2496,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>24</v>
@@ -2506,7 +2537,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
         <v>39</v>
@@ -2588,7 +2619,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="5"/>
@@ -2631,7 +2662,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
         <v>41</v>
@@ -2666,7 +2697,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6" t="s">
         <v>42</v>
@@ -2705,7 +2736,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
         <v>43</v>
@@ -2742,7 +2773,7 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
         <v>45</v>
@@ -2779,7 +2810,7 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
         <v>20</v>
@@ -2818,7 +2849,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="5"/>
@@ -2859,7 +2890,7 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
         <v>28</v>
@@ -2898,7 +2929,7 @@
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
         <v>47</v>
@@ -2935,7 +2966,7 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
         <v>48</v>
@@ -2972,7 +3003,7 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
         <v>43</v>
@@ -3009,7 +3040,7 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="5"/>
@@ -3050,7 +3081,7 @@
       <c r="M25" s="4"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
         <v>51</v>
@@ -3087,7 +3118,7 @@
       <c r="M26" s="4"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>52</v>
@@ -3124,7 +3155,7 @@
       <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13" t="s">
         <v>21</v>
@@ -3163,7 +3194,7 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="37"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="12"/>
       <c r="C29" s="15" t="s">
         <v>53</v>
@@ -3200,7 +3231,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="12"/>
       <c r="C30" s="15" t="s">
         <v>43</v>
@@ -3261,13 +3292,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M2:M7"/>
@@ -3283,6 +3307,13 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="F2:F7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
